--- a/plugins/plexspeedtest/plex.tv_dns.xlsx
+++ b/plugins/plexspeedtest/plex.tv_dns.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\InfinityPacer\MoviePilot\app\plugins\plexspeedtest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE2993F-EEDB-4C87-B09B-1AFF17CD3E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="All Hosts" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Hosts'!$A$1:$K$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Hosts'!$A$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="158">
   <si>
     <t>Hostname</t>
   </si>
@@ -152,9 +146,86 @@
     <t>unknown</t>
   </si>
   <si>
+    <t>meta.plex.tv</t>
+  </si>
+  <si>
+    <t>104.18.27.211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cloudflare
+title: Direct IP access not allowed 
+</t>
+  </si>
+  <si>
+    <t>chapterdb.plex.tv</t>
+  </si>
+  <si>
+    <t>172.64.146.103</t>
+  </si>
+  <si>
+    <t>static.plex.tv</t>
+  </si>
+  <si>
+    <t>metadata-static.plex.tv</t>
+  </si>
+  <si>
+    <t>website-static.plex.tv</t>
+  </si>
+  <si>
+    <t>provider-static.plex.tv</t>
+  </si>
+  <si>
+    <t>bundle-archive-codeload.plex.tv</t>
+  </si>
+  <si>
+    <t>acoustid.plex.tv</t>
+  </si>
+  <si>
+    <t>lyricfind.plex.tv</t>
+  </si>
+  <si>
+    <t>analytics-stage.plex.tv</t>
+  </si>
+  <si>
+    <t>chapterdb-archive.plex.tv</t>
+  </si>
+  <si>
+    <t>bundle-archive.plex.tv</t>
+  </si>
+  <si>
+    <t>watch-staging.plex.tv</t>
+  </si>
+  <si>
+    <t>images-staging.plex.tv</t>
+  </si>
+  <si>
+    <t>sonos-staging.plex.tv</t>
+  </si>
+  <si>
+    <t>gist-staging.plex.tv</t>
+  </si>
+  <si>
+    <t>blog.plex.tv</t>
+  </si>
+  <si>
+    <t>watch.plex.tv</t>
+  </si>
+  <si>
+    <t>songkick.plex.tv</t>
+  </si>
+  <si>
+    <t>email.plex.tv</t>
+  </si>
+  <si>
     <t>o1.email.plex.tv</t>
   </si>
   <si>
+    <t>mpm.plex.tv</t>
+  </si>
+  <si>
+    <t>104.18.26.211</t>
+  </si>
+  <si>
     <t>cp.plex.tv</t>
   </si>
   <si>
@@ -162,6 +233,96 @@
   </si>
   <si>
     <t>DIGITALOCEAN-ASN</t>
+  </si>
+  <si>
+    <t>help.plex.tv</t>
+  </si>
+  <si>
+    <t>plexamp.plex.tv</t>
+  </si>
+  <si>
+    <t>ump.plex.tv</t>
+  </si>
+  <si>
+    <t>app.plex.tv</t>
+  </si>
+  <si>
+    <t>metadata.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>music.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>vod.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>music-staging.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>epg-staging.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>email-staging.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>discover-staging.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>play-staging.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>epg.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>email.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>discover.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>vod2-dev.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>legadata-dev.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>metadata-dev.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>music-dev.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>vod-dev.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>datadog-dev.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>epg-dev.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>discover-dev.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>news-dev.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>play-dev.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>play.provider.plex.tv</t>
+  </si>
+  <si>
+    <t>transcoder.plex.tv</t>
+  </si>
+  <si>
+    <t>cordcutter.plex.tv</t>
+  </si>
+  <si>
+    <t>staging1-cordcutter.plex.tv</t>
+  </si>
+  <si>
+    <t>staging3-cordcutter.plex.tv</t>
   </si>
   <si>
     <t>scalr.plex.tv</t>
@@ -180,6 +341,45 @@
     <t xml:space="preserve">title: Redirecting...
 CN: vpn.plex.bz
 </t>
+  </si>
+  <si>
+    <t>ump-paas.plex.tv</t>
+  </si>
+  <si>
+    <t>analytics.plex.tv</t>
+  </si>
+  <si>
+    <t>downloads.plex.tv</t>
+  </si>
+  <si>
+    <t>images.plex.tv</t>
+  </si>
+  <si>
+    <t>nightlies.plex.tv</t>
+  </si>
+  <si>
+    <t>scrobbles.plex.tv</t>
+  </si>
+  <si>
+    <t>links.plex.tv</t>
+  </si>
+  <si>
+    <t>plugins.plex.tv</t>
+  </si>
+  <si>
+    <t>sonos.plex.tv</t>
+  </si>
+  <si>
+    <t>htbackdrops.plex.tv</t>
+  </si>
+  <si>
+    <t>artifacts.plex.tv</t>
+  </si>
+  <si>
+    <t>assets.plex.tv</t>
+  </si>
+  <si>
+    <t>clients.plex.tv</t>
   </si>
   <si>
     <t>ns1-plexdirect.plex.tv</t>
@@ -225,25 +425,55 @@
     <t>52.19.5.174</t>
   </si>
   <si>
+    <t>support.plex.tv</t>
+  </si>
+  <si>
+    <t>staging1-support.plex.tv</t>
+  </si>
+  <si>
+    <t>staging3-support.plex.tv</t>
+  </si>
+  <si>
+    <t>gist.plex.tv</t>
+  </si>
+  <si>
     <t>outbound-eu.plex.tv</t>
   </si>
   <si>
     <t>52.16.243.179</t>
   </si>
   <si>
+    <t>images-dev.plex.tv</t>
+  </si>
+  <si>
+    <t>sonos-dev.plex.tv</t>
+  </si>
+  <si>
+    <t>www.plex.tv</t>
+  </si>
+  <si>
+    <t>staging1-www.plex.tv</t>
+  </si>
+  <si>
+    <t>staging3-www.plex.tv</t>
+  </si>
+  <si>
+    <t>mbz.plex.tv</t>
+  </si>
+  <si>
+    <t>rafe.ns.cloudflare.com.</t>
+  </si>
+  <si>
+    <t>108.162.192.216</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
     <t>jeremy.ns.cloudflare.com.</t>
   </si>
   <si>
-    <t>108.162.193.180</t>
-  </si>
-  <si>
-    <t>NS</t>
-  </si>
-  <si>
-    <t>rafe.ns.cloudflare.com.</t>
-  </si>
-  <si>
-    <t>108.162.192.216</t>
+    <t>173.245.59.180</t>
   </si>
   <si>
     <t>0 alt1.aspmx.l.google.com.</t>
@@ -261,7 +491,7 @@
     <t>0 aspmx.l.google.com.</t>
   </si>
   <si>
-    <t>172.253.115.27</t>
+    <t>142.251.111.26</t>
   </si>
   <si>
     <t>0 aspmx3.googlemail.com.</t>
@@ -273,32 +503,21 @@
     <t>0 aspmx2.googlemail.com.</t>
   </si>
   <si>
+    <t>209.85.202.27</t>
+  </si>
+  <si>
     <t>0 alt2.aspmx.l.google.com.</t>
-  </si>
-  <si>
-    <t>64.233.184.26</t>
-  </si>
-  <si>
-    <t>meta.plex.tv</t>
-  </si>
-  <si>
-    <t>104.18.27.211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cloudflare
-title: Direct IP access not allowed 
-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -306,29 +525,22 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -408,25 +620,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -464,7 +668,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -498,7 +702,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -533,10 +736,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -709,27 +911,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="3.75" customWidth="1"/>
-    <col min="4" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="16.75" customWidth="1"/>
-    <col min="8" max="11" width="20.75" customWidth="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="16" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,7 +967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="30" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -795,7 +998,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -820,7 +1023,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="30" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -845,7 +1048,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="30" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -870,7 +1073,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -895,7 +1098,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -920,7 +1123,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -943,12 +1146,12 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -962,262 +1165,454 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+    <row r="10" spans="1:11" ht="30" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+    <row r="11" spans="1:11" ht="30" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+    <row r="12" spans="1:11" ht="30" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+    <row r="13" spans="1:11" ht="30" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+    <row r="14" spans="1:11" ht="30" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+    <row r="15" spans="1:11" ht="30" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+    <row r="16" spans="1:11" ht="30" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+    <row r="17" spans="1:11" ht="30" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+    <row r="18" spans="1:11" ht="30" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+    <row r="19" spans="1:11" ht="30" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+    <row r="20" spans="1:11" ht="30" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+    <row r="21" spans="1:11" ht="30" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+    <row r="22" spans="1:11" ht="30" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+    <row r="23" spans="1:11" ht="30" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+    <row r="24" spans="1:11" ht="30" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
+      <c r="E24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+    <row r="25" spans="1:11" ht="30" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
+      <c r="E25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+    <row r="26" spans="1:11" ht="30" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
+      <c r="E26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+    <row r="27" spans="1:11" ht="30" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
+      <c r="E27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+    <row r="28" spans="1:11" ht="30" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="30" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>25</v>
@@ -1240,32 +1635,44 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+    <row r="30" spans="1:11" ht="30" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
+      <c r="E30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" ht="30" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>23</v>
@@ -1276,408 +1683,720 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+    <row r="32" spans="1:11" ht="30" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
+      <c r="E32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+    <row r="33" spans="1:11" ht="30" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="2"/>
+      <c r="E33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+    <row r="34" spans="1:11" ht="30" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
+      <c r="E34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+    <row r="35" spans="1:11" ht="30" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="2"/>
+      <c r="E35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+    <row r="36" spans="1:11" ht="30" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
+      <c r="E36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+    <row r="37" spans="1:11" ht="30" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
+      <c r="E37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+    <row r="38" spans="1:11" ht="30" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="2"/>
+      <c r="E38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+    <row r="39" spans="1:11" ht="30" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="2"/>
+      <c r="E39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="H39" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+    <row r="40" spans="1:11" ht="30" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="2"/>
+      <c r="E40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+    <row r="41" spans="1:11" ht="30" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="2"/>
+      <c r="E41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+    <row r="42" spans="1:11" ht="30" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="2"/>
+      <c r="E42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+    <row r="43" spans="1:11" ht="30" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="2"/>
+      <c r="E43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+    <row r="44" spans="1:11" ht="30" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="2"/>
+      <c r="E44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+    <row r="45" spans="1:11" ht="30" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="2"/>
+      <c r="E45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+    <row r="46" spans="1:11" ht="30" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="2"/>
+      <c r="E46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="H46" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+    <row r="47" spans="1:11" ht="30" customHeight="1">
+      <c r="A47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="2"/>
+      <c r="E47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+    <row r="48" spans="1:11" ht="30" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="2"/>
+      <c r="E48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+    <row r="49" spans="1:11" ht="30" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="2"/>
+      <c r="E49" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+    <row r="50" spans="1:11" ht="30" customHeight="1">
+      <c r="A50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="2"/>
+      <c r="E50" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+    <row r="51" spans="1:11" ht="30" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="2"/>
+      <c r="E51" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+    <row r="52" spans="1:11" ht="30" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="2"/>
+      <c r="E52" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+    <row r="53" spans="1:11" ht="30" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="2"/>
+      <c r="E53" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+    <row r="54" spans="1:11" ht="30" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="2"/>
+      <c r="E54" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+    <row r="55" spans="1:11" ht="30" customHeight="1">
+      <c r="A55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="2"/>
+      <c r="E55" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+    <row r="56" spans="1:11" ht="30" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="2"/>
+      <c r="E56" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+    <row r="57" spans="1:11" ht="30" customHeight="1">
+      <c r="A57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="2"/>
+      <c r="E57" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+    <row r="58" spans="1:11" ht="30" customHeight="1">
+      <c r="A58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="2"/>
+      <c r="E58" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+    <row r="59" spans="1:11" ht="30" customHeight="1">
+      <c r="A59" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="2"/>
+      <c r="E59" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+    <row r="60" spans="1:11" ht="30" customHeight="1">
+      <c r="A60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="2"/>
+      <c r="E60" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="H60" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+    <row r="61" spans="1:11" ht="30" customHeight="1">
+      <c r="A61" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="2"/>
+      <c r="E61" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" ht="30" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>15</v>
@@ -1687,198 +2406,332 @@
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+    <row r="63" spans="1:11" ht="30" customHeight="1">
+      <c r="A63" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="2"/>
+      <c r="E63" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
+      <c r="H63" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+    <row r="64" spans="1:11" ht="30" customHeight="1">
+      <c r="A64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="2"/>
+      <c r="E64" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+    <row r="65" spans="1:11" ht="30" customHeight="1">
+      <c r="A65" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="2"/>
+      <c r="E65" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+    <row r="66" spans="1:11" ht="30" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="2"/>
+      <c r="E66" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+    <row r="67" spans="1:11" ht="30" customHeight="1">
+      <c r="A67" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="2"/>
+      <c r="E67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+    <row r="68" spans="1:11" ht="30" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="2"/>
+      <c r="E68" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+    <row r="69" spans="1:11" ht="30" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="2"/>
+      <c r="E69" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+    <row r="70" spans="1:11" ht="30" customHeight="1">
+      <c r="A70" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="2"/>
+      <c r="E70" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+    <row r="71" spans="1:11" ht="30" customHeight="1">
+      <c r="A71" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="2"/>
+      <c r="E71" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
+      <c r="H71" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+    <row r="72" spans="1:11" ht="30" customHeight="1">
+      <c r="A72" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="2"/>
+      <c r="E72" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+    <row r="73" spans="1:11" ht="30" customHeight="1">
+      <c r="A73" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="2"/>
+      <c r="E73" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+    <row r="74" spans="1:11" ht="30" customHeight="1">
+      <c r="A74" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="2"/>
+      <c r="E74" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+    <row r="75" spans="1:11" ht="30" customHeight="1">
+      <c r="A75" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="2"/>
+      <c r="E75" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="30" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>23</v>
@@ -1889,72 +2742,72 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="30" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="30" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="30" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>15</v>
@@ -1968,70 +2821,112 @@
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+    <row r="80" spans="1:11" ht="30" customHeight="1">
+      <c r="A80" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="2"/>
+      <c r="E80" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+    <row r="81" spans="1:11" ht="30" customHeight="1">
+      <c r="A81" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="2"/>
+      <c r="E81" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
+    <row r="82" spans="1:11" ht="30" customHeight="1">
+      <c r="A82" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="2"/>
+      <c r="E82" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
+      <c r="H82" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+    <row r="83" spans="1:11" ht="30" customHeight="1">
+      <c r="A83" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="2"/>
+      <c r="E83" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="30" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>15</v>
@@ -2045,93 +2940,155 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+    <row r="85" spans="1:11" ht="30" customHeight="1">
+      <c r="A85" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="2"/>
+      <c r="E85" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+    <row r="86" spans="1:11" ht="30" customHeight="1">
+      <c r="A86" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="2"/>
+      <c r="E86" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+    <row r="87" spans="1:11" ht="30" customHeight="1">
+      <c r="A87" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="2"/>
+      <c r="E87" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+    <row r="88" spans="1:11" ht="30" customHeight="1">
+      <c r="A88" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="2"/>
+      <c r="E88" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
+      <c r="H88" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+    <row r="89" spans="1:11" ht="30" customHeight="1">
+      <c r="A89" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="2"/>
+      <c r="E89" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
+    <row r="90" spans="1:11" ht="30" customHeight="1">
+      <c r="A90" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="2"/>
+      <c r="E90" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" ht="30" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
@@ -2146,15 +3103,15 @@
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" ht="30" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
@@ -2169,19 +3126,19 @@
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" ht="30" customHeight="1">
       <c r="A93" s="5" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>23</v>
@@ -2192,19 +3149,19 @@
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" ht="30" customHeight="1">
       <c r="A94" s="5" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>23</v>
@@ -2215,19 +3172,19 @@
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" ht="30" customHeight="1">
       <c r="A95" s="5" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>23</v>
@@ -2238,19 +3195,19 @@
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
     </row>
-    <row r="96" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" ht="30" customHeight="1">
       <c r="A96" s="5" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>23</v>
@@ -2261,19 +3218,19 @@
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11" ht="30" customHeight="1">
       <c r="A97" s="5" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>23</v>
@@ -2285,20 +3242,7 @@
       <c r="K97" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K97" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="A"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="CLOUDFLARENET"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <autoFilter ref="A1:K1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>